--- a/MATHCUNHA_COMPNATURAL/resultados/Atividade_3.xlsx
+++ b/MATHCUNHA_COMPNATURAL/resultados/Atividade_3.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Single" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Multilayer" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Single!$A$1:$E$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Multilayer!$A$1:$F$325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Single!$A$1:$F$73</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="9">
   <si>
     <t>peso</t>
   </si>
@@ -41,12 +42,25 @@
   <si>
     <t>[-0,05,0,05]</t>
   </si>
+  <si>
+    <t>[-5,00,5,00]</t>
+  </si>
+  <si>
+    <t>Taxa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,14 +86,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -371,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -382,7 +399,7 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" outlineLevel="1">
+    <row r="1" spans="1:6" outlineLevel="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,8 +415,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" outlineLevel="1">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" outlineLevel="1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -415,8 +435,12 @@
       <c r="E2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" outlineLevel="1">
+      <c r="F2" s="1">
+        <f>E2/8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" outlineLevel="1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -432,16 +456,20 @@
       <c r="E3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" outlineLevel="1">
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F66" si="0">E3/8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" outlineLevel="1">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -449,13 +477,17 @@
       <c r="E4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" outlineLevel="1">
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" outlineLevel="1">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -466,16 +498,20 @@
       <c r="E5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" outlineLevel="1">
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" outlineLevel="1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -483,16 +519,20 @@
       <c r="E6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" outlineLevel="1">
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" outlineLevel="1">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -500,16 +540,20 @@
       <c r="E7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" outlineLevel="1">
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" outlineLevel="1">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0.01</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -517,16 +561,20 @@
       <c r="E8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" outlineLevel="1">
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" outlineLevel="1">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -534,13 +582,17 @@
       <c r="E9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" outlineLevel="1">
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" outlineLevel="1">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>500</v>
@@ -551,161 +603,201 @@
       <c r="E10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" outlineLevel="1">
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" outlineLevel="1">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" outlineLevel="1">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" outlineLevel="1">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="1">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.01</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="1">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" outlineLevel="1">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>0.01</v>
+      </c>
+      <c r="C17">
         <v>500</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" outlineLevel="1">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>0.01</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" outlineLevel="1">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>0.01</v>
-      </c>
-      <c r="C13">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" outlineLevel="1">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="C18">
         <v>500</v>
       </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" outlineLevel="1">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>0.1</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" outlineLevel="1">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>0.1</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" outlineLevel="1">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>0.1</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" outlineLevel="1">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>0.01</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" outlineLevel="1">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>0.01</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
       <c r="D18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" outlineLevel="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" outlineLevel="1">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" outlineLevel="1">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" outlineLevel="1">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -713,135 +805,167 @@
         <v>0.1</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" outlineLevel="1">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" outlineLevel="1">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" outlineLevel="1">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>0.1</v>
+      </c>
+      <c r="C22">
         <v>500</v>
       </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" outlineLevel="1">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>0.01</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
       <c r="D22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" outlineLevel="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" outlineLevel="1">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" outlineLevel="1">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" outlineLevel="1">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" outlineLevel="1">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>0.1</v>
+      </c>
+      <c r="C25">
         <v>500</v>
       </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" outlineLevel="1">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>0.1</v>
-      </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
       <c r="D25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" outlineLevel="1">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" outlineLevel="1">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>0.1</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" outlineLevel="1">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" outlineLevel="1">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C27">
         <v>10</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" outlineLevel="1">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -852,13 +976,17 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" outlineLevel="1">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -869,166 +997,206 @@
         <v>100</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" outlineLevel="1">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" outlineLevel="1">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>500</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" outlineLevel="1">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" outlineLevel="1">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>0.01</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" outlineLevel="1">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" outlineLevel="1">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>0.01</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" outlineLevel="1">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>0.01</v>
+      </c>
+      <c r="C36">
         <v>500</v>
       </c>
-      <c r="D32">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" outlineLevel="1">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>500</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" outlineLevel="1">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <v>0.01</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>20</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" outlineLevel="1">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35">
-        <v>0.1</v>
-      </c>
-      <c r="C35">
-        <v>10</v>
-      </c>
-      <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" outlineLevel="1">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>0.1</v>
-      </c>
-      <c r="C36">
-        <v>10</v>
-      </c>
       <c r="D36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" outlineLevel="1">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" outlineLevel="1">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" outlineLevel="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" outlineLevel="1">
       <c r="A38" t="s">
         <v>6</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C38">
         <v>10</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" outlineLevel="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" outlineLevel="1">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1039,30 +1207,38 @@
         <v>100</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" outlineLevel="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" outlineLevel="1">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="C40">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" outlineLevel="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" outlineLevel="1">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1070,50 +1246,62 @@
         <v>0.1</v>
       </c>
       <c r="C41">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" outlineLevel="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" outlineLevel="1">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C42">
         <v>100</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" outlineLevel="1">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" outlineLevel="1">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C43">
         <v>100</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" outlineLevel="1">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" outlineLevel="1">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1124,30 +1312,38 @@
         <v>100</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" outlineLevel="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" outlineLevel="1">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D45">
         <v>10</v>
       </c>
       <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" outlineLevel="1">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" outlineLevel="1">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1158,49 +1354,61 @@
         <v>500</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" outlineLevel="1">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" outlineLevel="1">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" outlineLevel="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" outlineLevel="1">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C48">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D48">
         <v>5</v>
       </c>
       <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" outlineLevel="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" outlineLevel="1">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49">
         <v>0.1</v>
@@ -1209,35 +1417,43 @@
         <v>500</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" outlineLevel="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" outlineLevel="1">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>500</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" outlineLevel="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" outlineLevel="1">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>10</v>
@@ -1246,61 +1462,77 @@
         <v>20</v>
       </c>
       <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" outlineLevel="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" outlineLevel="1">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="D52">
         <v>20</v>
       </c>
       <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" outlineLevel="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" outlineLevel="1">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D53">
         <v>5</v>
       </c>
       <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" outlineLevel="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" outlineLevel="1">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D54">
         <v>10</v>
       </c>
       <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" outlineLevel="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" outlineLevel="1">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1308,33 +1540,41 @@
         <v>0.01</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" outlineLevel="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" outlineLevel="1">
       <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C56">
         <v>100</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" outlineLevel="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" outlineLevel="1">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1345,86 +1585,106 @@
         <v>100</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" outlineLevel="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" outlineLevel="1">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C58">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" outlineLevel="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" outlineLevel="1">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C59">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D59">
         <v>20</v>
       </c>
       <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" outlineLevel="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" outlineLevel="1">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C60">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" outlineLevel="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" outlineLevel="1">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C61">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" outlineLevel="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" outlineLevel="1">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C62">
         <v>500</v>
@@ -1433,66 +1693,82 @@
         <v>20</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" outlineLevel="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" outlineLevel="1">
       <c r="A63" t="s">
         <v>6</v>
       </c>
       <c r="B63">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" outlineLevel="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" outlineLevel="1">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C64">
         <v>10</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" outlineLevel="1">
+      <c r="F64" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" outlineLevel="1">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" outlineLevel="1">
+      <c r="F65" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" outlineLevel="1">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C66">
         <v>10</v>
@@ -1503,13 +1779,17 @@
       <c r="E66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" outlineLevel="1">
+      <c r="F66" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" outlineLevel="1">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C67">
         <v>100</v>
@@ -1520,13 +1800,17 @@
       <c r="E67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" outlineLevel="1">
+      <c r="F67" s="1">
+        <f t="shared" ref="F67:F73" si="1">E67/8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" outlineLevel="1">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C68">
         <v>100</v>
@@ -1537,61 +1821,77 @@
       <c r="E68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" outlineLevel="1">
+      <c r="F68" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" outlineLevel="1">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C69">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" outlineLevel="1">
+      <c r="F69" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" outlineLevel="1">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C70">
         <v>500</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" outlineLevel="1">
+      <c r="F70" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" outlineLevel="1">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C71">
         <v>500</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" outlineLevel="1">
+      <c r="F71" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" outlineLevel="1">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1600,13 +1900,17 @@
         <v>500</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" outlineLevel="1">
+      <c r="F72" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" outlineLevel="1">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1614,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D73">
         <v>20</v>
@@ -1622,13 +1926,13 @@
       <c r="E73">
         <v>0</v>
       </c>
+      <c r="F73" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E73">
-    <sortState ref="A2:E73">
-      <sortCondition descending="1" ref="E1:E73"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:F73"/>
   <sortState ref="A1:E73">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
@@ -1638,12 +1942,6841 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F325"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <f>E2/8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.01</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F66" si="0">E3/8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.01</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.01</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0.01</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0.01</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>0.01</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0.01</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>0.01</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>0.01</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>0.1</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>0.01</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>0.01</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>0.01</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>0.01</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>0.01</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>0.01</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>0.01</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>0.01</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>0.01</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>0.01</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>0.01</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>0.1</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>0.1</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>0.01</v>
+      </c>
+      <c r="C34">
+        <v>1000</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>0.1</v>
+      </c>
+      <c r="C35">
+        <v>1000</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>0.1</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>0.01</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>0.01</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>0.1</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>0.01</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>0.01</v>
+      </c>
+      <c r="C41">
+        <v>1000</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>0.1</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>0.01</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>0.1</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>0.1</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>0.01</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>0.1</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>0.01</v>
+      </c>
+      <c r="C48">
+        <v>1000</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>0.1</v>
+      </c>
+      <c r="C49">
+        <v>1000</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>0.1</v>
+      </c>
+      <c r="C50">
+        <v>1000</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>0.1</v>
+      </c>
+      <c r="C51">
+        <v>1000</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>0.1</v>
+      </c>
+      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>0.1</v>
+      </c>
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>0.01</v>
+      </c>
+      <c r="C54">
+        <v>1000</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>0.1</v>
+      </c>
+      <c r="C55">
+        <v>1000</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>0.1</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>0.1</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>0.1</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>0.01</v>
+      </c>
+      <c r="C59">
+        <v>100</v>
+      </c>
+      <c r="D59">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>0.1</v>
+      </c>
+      <c r="C60">
+        <v>1000</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>0.1</v>
+      </c>
+      <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>0.01</v>
+      </c>
+      <c r="C62">
+        <v>1000</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>0.1</v>
+      </c>
+      <c r="C63">
+        <v>1000</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>0.1</v>
+      </c>
+      <c r="C64">
+        <v>1000</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>0.1</v>
+      </c>
+      <c r="C65">
+        <v>1000</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>0.01</v>
+      </c>
+      <c r="C66">
+        <v>1000</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>0.1</v>
+      </c>
+      <c r="C67">
+        <v>1000</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" ref="F67:F130" si="1">E67/8</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>0.1</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>0.01</v>
+      </c>
+      <c r="C69">
+        <v>1000</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>0.01</v>
+      </c>
+      <c r="C70">
+        <v>1000</v>
+      </c>
+      <c r="D70">
+        <v>20</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>0.01</v>
+      </c>
+      <c r="C71">
+        <v>1000</v>
+      </c>
+      <c r="D71">
+        <v>20</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1000</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1000</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1000</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>0.1</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>0.1</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>0.01</v>
+      </c>
+      <c r="C77">
+        <v>100</v>
+      </c>
+      <c r="D77">
+        <v>20</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>0.01</v>
+      </c>
+      <c r="C78">
+        <v>1000</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>0.1</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>0.1</v>
+      </c>
+      <c r="C80">
+        <v>100</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>0.1</v>
+      </c>
+      <c r="C81">
+        <v>1000</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>0.01</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>20</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>0.01</v>
+      </c>
+      <c r="C83">
+        <v>1000</v>
+      </c>
+      <c r="D83">
+        <v>20</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>0.1</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>0.1</v>
+      </c>
+      <c r="C85">
+        <v>100</v>
+      </c>
+      <c r="D85">
+        <v>20</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>0.1</v>
+      </c>
+      <c r="C86">
+        <v>1000</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1000</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1000</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1000</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1000</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1000</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92">
+        <v>0.01</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>20</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93">
+        <v>0.1</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94">
+        <v>0.1</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <v>0.1</v>
+      </c>
+      <c r="C95">
+        <v>100</v>
+      </c>
+      <c r="D95">
+        <v>20</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96">
+        <v>0.1</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97">
+        <v>0.1</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98">
+        <v>0.1</v>
+      </c>
+      <c r="C98">
+        <v>100</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99">
+        <v>0.1</v>
+      </c>
+      <c r="C99">
+        <v>100</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>0.1</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>0.01</v>
+      </c>
+      <c r="C103">
+        <v>100</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104">
+        <v>0.1</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>20</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105">
+        <v>0.1</v>
+      </c>
+      <c r="C105">
+        <v>100</v>
+      </c>
+      <c r="D105">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1000</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1000</v>
+      </c>
+      <c r="D107">
+        <v>20</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>0.01</v>
+      </c>
+      <c r="C108">
+        <v>100</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <v>0.01</v>
+      </c>
+      <c r="C109">
+        <v>100</v>
+      </c>
+      <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110">
+        <v>0.01</v>
+      </c>
+      <c r="C110">
+        <v>1000</v>
+      </c>
+      <c r="D110">
+        <v>10</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111">
+        <v>0.1</v>
+      </c>
+      <c r="C111">
+        <v>1000</v>
+      </c>
+      <c r="D111">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>0.1</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>0.01</v>
+      </c>
+      <c r="C113">
+        <v>100</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>0.1</v>
+      </c>
+      <c r="C114">
+        <v>100</v>
+      </c>
+      <c r="D114">
+        <v>10</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115">
+        <v>0.1</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>0.01</v>
+      </c>
+      <c r="C116">
+        <v>100</v>
+      </c>
+      <c r="D116">
+        <v>20</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117">
+        <v>0.1</v>
+      </c>
+      <c r="C117">
+        <v>1000</v>
+      </c>
+      <c r="D117">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118">
+        <v>0.01</v>
+      </c>
+      <c r="C118">
+        <v>100</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119">
+        <v>0.01</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120">
+        <v>0.01</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121">
+        <v>0.01</v>
+      </c>
+      <c r="C121">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>0.01</v>
+      </c>
+      <c r="C123">
+        <v>100</v>
+      </c>
+      <c r="D123">
+        <v>20</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1000</v>
+      </c>
+      <c r="D124">
+        <v>20</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>0.01</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>20</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" s="1">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>10</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>10</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <v>10</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>10</v>
+      </c>
+      <c r="D129">
+        <v>20</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>10</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1">
+        <f t="shared" ref="F131:F194" si="2">E131/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>10</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133">
+        <v>0.1</v>
+      </c>
+      <c r="C133">
+        <v>100</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134">
+        <v>0.1</v>
+      </c>
+      <c r="C134">
+        <v>100</v>
+      </c>
+      <c r="D134">
+        <v>10</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135">
+        <v>0.1</v>
+      </c>
+      <c r="C135">
+        <v>100</v>
+      </c>
+      <c r="D135">
+        <v>20</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>100</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137">
+        <v>0.1</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>10</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138">
+        <v>0.01</v>
+      </c>
+      <c r="C138">
+        <v>1000</v>
+      </c>
+      <c r="D138">
+        <v>20</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139">
+        <v>0.1</v>
+      </c>
+      <c r="C139">
+        <v>1000</v>
+      </c>
+      <c r="D139">
+        <v>20</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>0.1</v>
+      </c>
+      <c r="C140">
+        <v>10</v>
+      </c>
+      <c r="D140">
+        <v>20</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1000</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1000</v>
+      </c>
+      <c r="D142">
+        <v>10</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143">
+        <v>0.01</v>
+      </c>
+      <c r="C143">
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144">
+        <v>0.1</v>
+      </c>
+      <c r="C144">
+        <v>10</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145">
+        <v>0.1</v>
+      </c>
+      <c r="C145">
+        <v>10</v>
+      </c>
+      <c r="D145">
+        <v>10</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>10</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>20</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148">
+        <v>0.1</v>
+      </c>
+      <c r="C148">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>20</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149">
+        <v>0.1</v>
+      </c>
+      <c r="C149">
+        <v>100</v>
+      </c>
+      <c r="D149">
+        <v>10</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>1000</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151">
+        <v>0.01</v>
+      </c>
+      <c r="C151">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>20</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152">
+        <v>0.1</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>10</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153">
+        <v>0.1</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>20</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>10</v>
+      </c>
+      <c r="D154">
+        <v>20</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>100</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>100</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>100</v>
+      </c>
+      <c r="D157">
+        <v>10</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>100</v>
+      </c>
+      <c r="D158">
+        <v>20</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159">
+        <v>0.01</v>
+      </c>
+      <c r="C159">
+        <v>10</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160">
+        <v>0.01</v>
+      </c>
+      <c r="C160">
+        <v>10</v>
+      </c>
+      <c r="D160">
+        <v>5</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161">
+        <v>0.01</v>
+      </c>
+      <c r="C161">
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <v>10</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>100</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>100</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>100</v>
+      </c>
+      <c r="D164">
+        <v>10</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>100</v>
+      </c>
+      <c r="D165">
+        <v>20</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166">
+        <v>0.01</v>
+      </c>
+      <c r="C166">
+        <v>10</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167">
+        <v>0.01</v>
+      </c>
+      <c r="C167">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168">
+        <v>0.01</v>
+      </c>
+      <c r="C168">
+        <v>10</v>
+      </c>
+      <c r="D168">
+        <v>10</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169">
+        <v>0.01</v>
+      </c>
+      <c r="C169">
+        <v>10</v>
+      </c>
+      <c r="D169">
+        <v>20</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170">
+        <v>0.1</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171">
+        <v>0.1</v>
+      </c>
+      <c r="C171">
+        <v>10</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172">
+        <v>0.1</v>
+      </c>
+      <c r="C172">
+        <v>10</v>
+      </c>
+      <c r="D172">
+        <v>10</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173">
+        <v>0.1</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+      <c r="D173">
+        <v>20</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>10</v>
+      </c>
+      <c r="D174">
+        <v>20</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175">
+        <v>0.01</v>
+      </c>
+      <c r="C175">
+        <v>100</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176">
+        <v>0.01</v>
+      </c>
+      <c r="C176">
+        <v>100</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177">
+        <v>0.01</v>
+      </c>
+      <c r="C177">
+        <v>100</v>
+      </c>
+      <c r="D177">
+        <v>10</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178">
+        <v>0.01</v>
+      </c>
+      <c r="C178">
+        <v>100</v>
+      </c>
+      <c r="D178">
+        <v>20</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179">
+        <v>0.1</v>
+      </c>
+      <c r="C179">
+        <v>100</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>100</v>
+      </c>
+      <c r="D180">
+        <v>5</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>100</v>
+      </c>
+      <c r="D181">
+        <v>10</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>100</v>
+      </c>
+      <c r="D182">
+        <v>20</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183">
+        <v>0.01</v>
+      </c>
+      <c r="C183">
+        <v>1000</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184">
+        <v>0.01</v>
+      </c>
+      <c r="C184">
+        <v>1000</v>
+      </c>
+      <c r="D184">
+        <v>5</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185">
+        <v>0.01</v>
+      </c>
+      <c r="C185">
+        <v>1000</v>
+      </c>
+      <c r="D185">
+        <v>10</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186">
+        <v>0.01</v>
+      </c>
+      <c r="C186">
+        <v>1000</v>
+      </c>
+      <c r="D186">
+        <v>20</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187">
+        <v>0.1</v>
+      </c>
+      <c r="C187">
+        <v>1000</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188">
+        <v>0.1</v>
+      </c>
+      <c r="C188">
+        <v>1000</v>
+      </c>
+      <c r="D188">
+        <v>5</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189">
+        <v>0.1</v>
+      </c>
+      <c r="C189">
+        <v>1000</v>
+      </c>
+      <c r="D189">
+        <v>10</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190">
+        <v>0.1</v>
+      </c>
+      <c r="C190">
+        <v>1000</v>
+      </c>
+      <c r="D190">
+        <v>20</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>1000</v>
+      </c>
+      <c r="D191">
+        <v>20</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192">
+        <v>0.01</v>
+      </c>
+      <c r="C192">
+        <v>10</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193">
+        <v>0.01</v>
+      </c>
+      <c r="C193">
+        <v>10</v>
+      </c>
+      <c r="D193">
+        <v>5</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194">
+        <v>0.01</v>
+      </c>
+      <c r="C194">
+        <v>10</v>
+      </c>
+      <c r="D194">
+        <v>10</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195">
+        <v>0.01</v>
+      </c>
+      <c r="C195">
+        <v>10</v>
+      </c>
+      <c r="D195">
+        <v>20</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195" s="1">
+        <f t="shared" ref="F195:F258" si="3">E195/8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196">
+        <v>0.1</v>
+      </c>
+      <c r="C196">
+        <v>10</v>
+      </c>
+      <c r="D196">
+        <v>5</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197">
+        <v>0.1</v>
+      </c>
+      <c r="C197">
+        <v>10</v>
+      </c>
+      <c r="D197">
+        <v>20</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>10</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>10</v>
+      </c>
+      <c r="D199">
+        <v>5</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>10</v>
+      </c>
+      <c r="D200">
+        <v>10</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>10</v>
+      </c>
+      <c r="D201">
+        <v>20</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202">
+        <v>0.01</v>
+      </c>
+      <c r="C202">
+        <v>100</v>
+      </c>
+      <c r="D202">
+        <v>20</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203">
+        <v>0.1</v>
+      </c>
+      <c r="C203">
+        <v>100</v>
+      </c>
+      <c r="D203">
+        <v>20</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>100</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>100</v>
+      </c>
+      <c r="D205">
+        <v>5</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>100</v>
+      </c>
+      <c r="D206">
+        <v>10</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>100</v>
+      </c>
+      <c r="D207">
+        <v>20</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>1000</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>1000</v>
+      </c>
+      <c r="D209">
+        <v>5</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>1000</v>
+      </c>
+      <c r="D210">
+        <v>10</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>1000</v>
+      </c>
+      <c r="D211">
+        <v>20</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>10</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>10</v>
+      </c>
+      <c r="D213">
+        <v>5</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>10</v>
+      </c>
+      <c r="D214">
+        <v>10</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>10</v>
+      </c>
+      <c r="D215">
+        <v>20</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>100</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>100</v>
+      </c>
+      <c r="D217">
+        <v>5</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>100</v>
+      </c>
+      <c r="D218">
+        <v>10</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>100</v>
+      </c>
+      <c r="D219">
+        <v>20</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>1000</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>1000</v>
+      </c>
+      <c r="D221">
+        <v>5</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>1000</v>
+      </c>
+      <c r="D222">
+        <v>10</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>1000</v>
+      </c>
+      <c r="D223">
+        <v>20</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224">
+        <v>0.01</v>
+      </c>
+      <c r="C224">
+        <v>10</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225">
+        <v>0.01</v>
+      </c>
+      <c r="C225">
+        <v>10</v>
+      </c>
+      <c r="D225">
+        <v>5</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226">
+        <v>0.01</v>
+      </c>
+      <c r="C226">
+        <v>10</v>
+      </c>
+      <c r="D226">
+        <v>10</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227">
+        <v>0.01</v>
+      </c>
+      <c r="C227">
+        <v>10</v>
+      </c>
+      <c r="D227">
+        <v>20</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228">
+        <v>0.1</v>
+      </c>
+      <c r="C228">
+        <v>10</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229">
+        <v>0.1</v>
+      </c>
+      <c r="C229">
+        <v>10</v>
+      </c>
+      <c r="D229">
+        <v>5</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230">
+        <v>0.1</v>
+      </c>
+      <c r="C230">
+        <v>10</v>
+      </c>
+      <c r="D230">
+        <v>10</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231">
+        <v>0.1</v>
+      </c>
+      <c r="C231">
+        <v>10</v>
+      </c>
+      <c r="D231">
+        <v>20</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>7</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>10</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>10</v>
+      </c>
+      <c r="D233">
+        <v>5</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>7</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>10</v>
+      </c>
+      <c r="D234">
+        <v>10</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>7</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>10</v>
+      </c>
+      <c r="D235">
+        <v>20</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>7</v>
+      </c>
+      <c r="B236">
+        <v>0.01</v>
+      </c>
+      <c r="C236">
+        <v>100</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237">
+        <v>0.01</v>
+      </c>
+      <c r="C237">
+        <v>100</v>
+      </c>
+      <c r="D237">
+        <v>5</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238">
+        <v>0.01</v>
+      </c>
+      <c r="C238">
+        <v>100</v>
+      </c>
+      <c r="D238">
+        <v>10</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239">
+        <v>0.01</v>
+      </c>
+      <c r="C239">
+        <v>100</v>
+      </c>
+      <c r="D239">
+        <v>20</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240">
+        <v>0.1</v>
+      </c>
+      <c r="C240">
+        <v>100</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241">
+        <v>0.1</v>
+      </c>
+      <c r="C241">
+        <v>100</v>
+      </c>
+      <c r="D241">
+        <v>5</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242">
+        <v>0.1</v>
+      </c>
+      <c r="C242">
+        <v>100</v>
+      </c>
+      <c r="D242">
+        <v>10</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243">
+        <v>0.1</v>
+      </c>
+      <c r="C243">
+        <v>100</v>
+      </c>
+      <c r="D243">
+        <v>20</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>7</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>100</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>7</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>100</v>
+      </c>
+      <c r="D245">
+        <v>5</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>7</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>100</v>
+      </c>
+      <c r="D246">
+        <v>10</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>7</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>100</v>
+      </c>
+      <c r="D247">
+        <v>20</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>7</v>
+      </c>
+      <c r="B248">
+        <v>0.01</v>
+      </c>
+      <c r="C248">
+        <v>1000</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>7</v>
+      </c>
+      <c r="B249">
+        <v>0.01</v>
+      </c>
+      <c r="C249">
+        <v>1000</v>
+      </c>
+      <c r="D249">
+        <v>5</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250">
+        <v>0.01</v>
+      </c>
+      <c r="C250">
+        <v>1000</v>
+      </c>
+      <c r="D250">
+        <v>10</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>7</v>
+      </c>
+      <c r="B251">
+        <v>0.01</v>
+      </c>
+      <c r="C251">
+        <v>1000</v>
+      </c>
+      <c r="D251">
+        <v>20</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>7</v>
+      </c>
+      <c r="B252">
+        <v>0.1</v>
+      </c>
+      <c r="C252">
+        <v>1000</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>7</v>
+      </c>
+      <c r="B253">
+        <v>0.1</v>
+      </c>
+      <c r="C253">
+        <v>1000</v>
+      </c>
+      <c r="D253">
+        <v>5</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>7</v>
+      </c>
+      <c r="B254">
+        <v>0.1</v>
+      </c>
+      <c r="C254">
+        <v>1000</v>
+      </c>
+      <c r="D254">
+        <v>10</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255">
+        <v>0.1</v>
+      </c>
+      <c r="C255">
+        <v>1000</v>
+      </c>
+      <c r="D255">
+        <v>20</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
+        <v>7</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>1000</v>
+      </c>
+      <c r="D256">
+        <v>5</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>7</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>1000</v>
+      </c>
+      <c r="D257">
+        <v>20</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258">
+        <v>0.01</v>
+      </c>
+      <c r="C258">
+        <v>10</v>
+      </c>
+      <c r="D258">
+        <v>5</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259">
+        <v>0.01</v>
+      </c>
+      <c r="C259">
+        <v>10</v>
+      </c>
+      <c r="D259">
+        <v>10</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259" s="1">
+        <f t="shared" ref="F259:F322" si="4">E259/8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260">
+        <v>0.01</v>
+      </c>
+      <c r="C260">
+        <v>10</v>
+      </c>
+      <c r="D260">
+        <v>20</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261">
+        <v>0.1</v>
+      </c>
+      <c r="C261">
+        <v>10</v>
+      </c>
+      <c r="D261">
+        <v>20</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>10</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>10</v>
+      </c>
+      <c r="D263">
+        <v>5</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264">
+        <v>0.01</v>
+      </c>
+      <c r="C264">
+        <v>100</v>
+      </c>
+      <c r="D264">
+        <v>5</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265">
+        <v>0.01</v>
+      </c>
+      <c r="C265">
+        <v>100</v>
+      </c>
+      <c r="D265">
+        <v>10</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266">
+        <v>0.01</v>
+      </c>
+      <c r="C266">
+        <v>100</v>
+      </c>
+      <c r="D266">
+        <v>20</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267">
+        <v>0.1</v>
+      </c>
+      <c r="C267">
+        <v>100</v>
+      </c>
+      <c r="D267">
+        <v>20</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>100</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>100</v>
+      </c>
+      <c r="D269">
+        <v>5</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>100</v>
+      </c>
+      <c r="D270">
+        <v>10</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>100</v>
+      </c>
+      <c r="D271">
+        <v>20</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272">
+        <v>0.01</v>
+      </c>
+      <c r="C272">
+        <v>1000</v>
+      </c>
+      <c r="D272">
+        <v>10</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273">
+        <v>0.01</v>
+      </c>
+      <c r="C273">
+        <v>1000</v>
+      </c>
+      <c r="D273">
+        <v>20</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274">
+        <v>0.1</v>
+      </c>
+      <c r="C274">
+        <v>1000</v>
+      </c>
+      <c r="D274">
+        <v>20</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>1000</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>1000</v>
+      </c>
+      <c r="D276">
+        <v>5</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>1000</v>
+      </c>
+      <c r="D277">
+        <v>10</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>1000</v>
+      </c>
+      <c r="D278">
+        <v>20</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" t="s">
+        <v>6</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>10</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>10</v>
+      </c>
+      <c r="D280">
+        <v>5</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" t="s">
+        <v>6</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>10</v>
+      </c>
+      <c r="D281">
+        <v>10</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" t="s">
+        <v>6</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>10</v>
+      </c>
+      <c r="D282">
+        <v>20</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="s">
+        <v>6</v>
+      </c>
+      <c r="B283">
+        <v>0.1</v>
+      </c>
+      <c r="C283">
+        <v>100</v>
+      </c>
+      <c r="D283">
+        <v>20</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>6</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>100</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>100</v>
+      </c>
+      <c r="D285">
+        <v>5</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="s">
+        <v>6</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <v>100</v>
+      </c>
+      <c r="D286">
+        <v>10</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" t="s">
+        <v>6</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>100</v>
+      </c>
+      <c r="D287">
+        <v>20</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" t="s">
+        <v>6</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>1000</v>
+      </c>
+      <c r="D288">
+        <v>5</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" t="s">
+        <v>6</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>1000</v>
+      </c>
+      <c r="D289">
+        <v>10</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" t="s">
+        <v>6</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>1000</v>
+      </c>
+      <c r="D290">
+        <v>20</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" t="s">
+        <v>7</v>
+      </c>
+      <c r="B291">
+        <v>0.01</v>
+      </c>
+      <c r="C291">
+        <v>10</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" t="s">
+        <v>7</v>
+      </c>
+      <c r="B292">
+        <v>0.01</v>
+      </c>
+      <c r="C292">
+        <v>10</v>
+      </c>
+      <c r="D292">
+        <v>5</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" t="s">
+        <v>7</v>
+      </c>
+      <c r="B293">
+        <v>0.01</v>
+      </c>
+      <c r="C293">
+        <v>10</v>
+      </c>
+      <c r="D293">
+        <v>10</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" t="s">
+        <v>7</v>
+      </c>
+      <c r="B294">
+        <v>0.01</v>
+      </c>
+      <c r="C294">
+        <v>10</v>
+      </c>
+      <c r="D294">
+        <v>20</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="s">
+        <v>7</v>
+      </c>
+      <c r="B295">
+        <v>0.1</v>
+      </c>
+      <c r="C295">
+        <v>10</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="s">
+        <v>7</v>
+      </c>
+      <c r="B296">
+        <v>0.1</v>
+      </c>
+      <c r="C296">
+        <v>10</v>
+      </c>
+      <c r="D296">
+        <v>5</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="s">
+        <v>7</v>
+      </c>
+      <c r="B297">
+        <v>0.1</v>
+      </c>
+      <c r="C297">
+        <v>10</v>
+      </c>
+      <c r="D297">
+        <v>10</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="s">
+        <v>7</v>
+      </c>
+      <c r="B298">
+        <v>0.1</v>
+      </c>
+      <c r="C298">
+        <v>10</v>
+      </c>
+      <c r="D298">
+        <v>20</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" t="s">
+        <v>7</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" t="s">
+        <v>7</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>10</v>
+      </c>
+      <c r="D300">
+        <v>5</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="s">
+        <v>7</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>10</v>
+      </c>
+      <c r="D301">
+        <v>10</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" t="s">
+        <v>7</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>10</v>
+      </c>
+      <c r="D302">
+        <v>20</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" t="s">
+        <v>7</v>
+      </c>
+      <c r="B303">
+        <v>0.01</v>
+      </c>
+      <c r="C303">
+        <v>100</v>
+      </c>
+      <c r="D303">
+        <v>5</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" t="s">
+        <v>7</v>
+      </c>
+      <c r="B304">
+        <v>0.01</v>
+      </c>
+      <c r="C304">
+        <v>100</v>
+      </c>
+      <c r="D304">
+        <v>10</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="s">
+        <v>7</v>
+      </c>
+      <c r="B305">
+        <v>0.01</v>
+      </c>
+      <c r="C305">
+        <v>100</v>
+      </c>
+      <c r="D305">
+        <v>20</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" t="s">
+        <v>7</v>
+      </c>
+      <c r="B306">
+        <v>0.1</v>
+      </c>
+      <c r="C306">
+        <v>100</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
+        <v>7</v>
+      </c>
+      <c r="B307">
+        <v>0.1</v>
+      </c>
+      <c r="C307">
+        <v>100</v>
+      </c>
+      <c r="D307">
+        <v>5</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" t="s">
+        <v>7</v>
+      </c>
+      <c r="B308">
+        <v>0.1</v>
+      </c>
+      <c r="C308">
+        <v>100</v>
+      </c>
+      <c r="D308">
+        <v>10</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" t="s">
+        <v>7</v>
+      </c>
+      <c r="B309">
+        <v>0.1</v>
+      </c>
+      <c r="C309">
+        <v>100</v>
+      </c>
+      <c r="D309">
+        <v>20</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" t="s">
+        <v>7</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>100</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" t="s">
+        <v>7</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>100</v>
+      </c>
+      <c r="D311">
+        <v>5</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" t="s">
+        <v>7</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>100</v>
+      </c>
+      <c r="D312">
+        <v>10</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" t="s">
+        <v>7</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>100</v>
+      </c>
+      <c r="D313">
+        <v>20</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" t="s">
+        <v>7</v>
+      </c>
+      <c r="B314">
+        <v>0.01</v>
+      </c>
+      <c r="C314">
+        <v>1000</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" t="s">
+        <v>7</v>
+      </c>
+      <c r="B315">
+        <v>0.01</v>
+      </c>
+      <c r="C315">
+        <v>1000</v>
+      </c>
+      <c r="D315">
+        <v>5</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" t="s">
+        <v>7</v>
+      </c>
+      <c r="B316">
+        <v>0.01</v>
+      </c>
+      <c r="C316">
+        <v>1000</v>
+      </c>
+      <c r="D316">
+        <v>10</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" t="s">
+        <v>7</v>
+      </c>
+      <c r="B317">
+        <v>0.01</v>
+      </c>
+      <c r="C317">
+        <v>1000</v>
+      </c>
+      <c r="D317">
+        <v>20</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" t="s">
+        <v>7</v>
+      </c>
+      <c r="B318">
+        <v>0.1</v>
+      </c>
+      <c r="C318">
+        <v>1000</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" t="s">
+        <v>7</v>
+      </c>
+      <c r="B319">
+        <v>0.1</v>
+      </c>
+      <c r="C319">
+        <v>1000</v>
+      </c>
+      <c r="D319">
+        <v>5</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" t="s">
+        <v>7</v>
+      </c>
+      <c r="B320">
+        <v>0.1</v>
+      </c>
+      <c r="C320">
+        <v>1000</v>
+      </c>
+      <c r="D320">
+        <v>10</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" t="s">
+        <v>7</v>
+      </c>
+      <c r="B321">
+        <v>0.1</v>
+      </c>
+      <c r="C321">
+        <v>1000</v>
+      </c>
+      <c r="D321">
+        <v>20</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" t="s">
+        <v>7</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>1000</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" t="s">
+        <v>7</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>1000</v>
+      </c>
+      <c r="D323">
+        <v>5</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323" s="1">
+        <f t="shared" ref="F323:F325" si="5">E323/8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" t="s">
+        <v>7</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>1000</v>
+      </c>
+      <c r="D324">
+        <v>10</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" t="s">
+        <v>7</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>1000</v>
+      </c>
+      <c r="D325">
+        <v>20</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F325"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
